--- a/data/trans_dic/P32E$amigos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Clase-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -982,7 +982,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en casa de amistades/familiares (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$amigos_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P32E$amigos_2023-Clase-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.2635506132543973</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2904959216764637</v>
+        <v>0.2904959216764635</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1142540832810603</v>
+        <v>0.1177420437896153</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1149448153310929</v>
+        <v>0.1231279452984752</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5879508714140558</v>
+        <v>0.5708051665368955</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.515367926835935</v>
+        <v>0.5368215884506565</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.2730498896660536</v>
+        <v>0.2730498896660535</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.3714381730551383</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.3188990607954949</v>
+        <v>0.318899060795495</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.06999826194105367</v>
+        <v>0.06858989519560654</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1249180398772288</v>
+        <v>0.1374655364970589</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1432730089029241</v>
+        <v>0.1610471545037418</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.5694555816171397</v>
+        <v>0.5083628199514054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6873683634885899</v>
+        <v>0.6599483859399555</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5028607800212855</v>
+        <v>0.5079170155829745</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.09423686411978395</v>
+        <v>0.09423686411978396</v>
       </c>
     </row>
     <row r="11">
@@ -691,11 +691,11 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02571668113521711</v>
+        <v>0.02610947483459497</v>
       </c>
       <c r="D11" s="5" t="inlineStr"/>
       <c r="E11" s="5" t="n">
-        <v>0.02483615937743063</v>
+        <v>0.0237565445233291</v>
       </c>
     </row>
     <row r="12">
@@ -706,11 +706,11 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2798719417377458</v>
+        <v>0.280635902359939</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.2450929416775544</v>
+        <v>0.2451127385534133</v>
       </c>
     </row>
     <row r="13">
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06571975203366555</v>
+        <v>0.06172891904349648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05067197102109194</v>
+        <v>0.04569087901768716</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.07794267569340659</v>
+        <v>0.0918697131903765</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3511259941848293</v>
+        <v>0.3381322971821821</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5927154820033074</v>
+        <v>0.5687136622940243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3435786974226385</v>
+        <v>0.3584373194193923</v>
       </c>
     </row>
     <row r="16">
@@ -786,7 +786,7 @@
         <v>0.4160736762910412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3775058396921927</v>
+        <v>0.3775058396921928</v>
       </c>
     </row>
     <row r="17">
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1945034962317378</v>
+        <v>0.2113167605285735</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1351243544630146</v>
+        <v>0.1393663480185497</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2237866084090426</v>
+        <v>0.2175329588162463</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.6058587430026471</v>
+        <v>0.6275499630775448</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7328667234468862</v>
+        <v>0.6837382699724692</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.5745635816051865</v>
+        <v>0.566011297998432</v>
       </c>
     </row>
     <row r="19">
@@ -835,7 +835,7 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.2451398211673516</v>
+        <v>0.2451398211673517</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.0733014107106512</v>
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.898139340378868</v>
+        <v>0.8981393403788681</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3824677272680102</v>
+        <v>0.4355565216160561</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4296086738569831</v>
+        <v>0.4027554346433475</v>
       </c>
     </row>
     <row r="22">
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.2418983141180157</v>
+        <v>0.2418983141180156</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.2453802642135842</v>
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1699238958848513</v>
+        <v>0.1611983645992519</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1438836608211463</v>
+        <v>0.1369702208939258</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.1808227454628347</v>
+        <v>0.1796567783340151</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3444432124454572</v>
+        <v>0.3289413341464634</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3882697003620404</v>
+        <v>0.3789196756283777</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3239293616490964</v>
+        <v>0.3230199444508657</v>
       </c>
     </row>
     <row r="25">
@@ -1074,13 +1074,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>2335</v>
+        <v>2406</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>3093</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="7">
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>12015</v>
+        <v>11664</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13870</v>
+        <v>14447</v>
       </c>
     </row>
     <row r="8">
@@ -1146,13 +1146,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1671</v>
+        <v>1839</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>4113</v>
+        <v>4623</v>
       </c>
     </row>
     <row r="11">
@@ -1163,13 +1163,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>8729</v>
+        <v>7793</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9195</v>
+        <v>8828</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14435</v>
+        <v>14580</v>
       </c>
     </row>
     <row r="12">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>882</v>
+        <v>844</v>
       </c>
     </row>
     <row r="15">
@@ -1233,11 +1233,11 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8947</v>
+        <v>8971</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>8704</v>
+        <v>8705</v>
       </c>
     </row>
     <row r="16">
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2748</v>
+        <v>2581</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>752</v>
+        <v>678</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>4416</v>
+        <v>5205</v>
       </c>
     </row>
     <row r="19">
@@ -1303,13 +1303,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>14682</v>
+        <v>14138</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8796</v>
+        <v>8440</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>19465</v>
+        <v>20307</v>
       </c>
     </row>
     <row r="20">
@@ -1358,13 +1358,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8183</v>
+        <v>8890</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11305</v>
+        <v>10990</v>
       </c>
     </row>
     <row r="23">
@@ -1375,13 +1375,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25489</v>
+        <v>26402</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>6191</v>
+        <v>5776</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>29026</v>
+        <v>28594</v>
       </c>
     </row>
     <row r="24">
@@ -1450,10 +1450,10 @@
         <v>5464</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5182</v>
+        <v>5902</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8435</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="28">
@@ -1502,13 +1502,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>26797</v>
+        <v>25421</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>8668</v>
+        <v>8251</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>39408</v>
+        <v>39154</v>
       </c>
     </row>
     <row r="31">
@@ -1519,13 +1519,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>54318</v>
+        <v>51874</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>23389</v>
+        <v>22826</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>70597</v>
+        <v>70399</v>
       </c>
     </row>
     <row r="32">
